--- a/N.G.HRS/DirectorateData.xlsx
+++ b/N.G.HRS/DirectorateData.xlsx
@@ -44,7 +44,7 @@
     <t>قفل شمر</t>
   </si>
   <si>
-    <t xml:space="preserve"> الجبر</t>
+    <t>الجبر</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -124,7 +124,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -135,7 +135,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -146,7 +146,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>8</v>
@@ -157,7 +157,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -168,7 +168,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
